--- a/output/aggregate_tables/Analysis Group Statistics/Area 27_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 27_summary.xlsx
@@ -1321,17 +1321,39 @@
       <c r="M4" s="4" t="n">
         <v>24.15730337078652</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>64.70588235294117</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>20.58823529411764</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>79.41176470588235</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>20.58823529411764</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1453,31 +1475,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.083872525501508</v>
+        <v>6.083963857694491</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.344976448516309</v>
+        <v>6.345067780709292</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
     </row>
   </sheetData>
@@ -1598,31 +1620,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.083872525501508</v>
+        <v>6.083963857694491</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.344976448516309</v>
+        <v>6.345067780709292</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
     </row>
     <row r="5">
@@ -1635,31 +1657,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.083872525501508</v>
+        <v>6.083963857694491</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.344976448516309</v>
+        <v>6.345067780709292</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
     </row>
   </sheetData>
@@ -1779,19 +1801,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2.793232987766152</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 27_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 27_summary.xlsx
@@ -1816,19 +1816,19 @@
         <v>13.42533072649818</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.793232987766152</v>
+        <v>2.793183387768043</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>78.97560440655828</v>
+        <v>78.97597774096548</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.23116260567558</v>
+        <v>18.23083887126648</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>81.76883739432442</v>
+        <v>81.76916112873351</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.23116260567558</v>
+        <v>18.23083887126648</v>
       </c>
     </row>
   </sheetData>
